--- a/src/test/java/TestData.xlsx
+++ b/src/test/java/TestData.xlsx
@@ -239,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -258,10 +258,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1195,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1208,7 +1204,7 @@
     <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>24</v>
       </c>
@@ -1219,126 +1215,93 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="12">
         <v>12345</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>11000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="12">
         <v>9876543</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>1111</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <v>514</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>112233</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <v>3333</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="13"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="9"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="9"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
